--- a/guide41_coursecreate.xlsx
+++ b/guide41_coursecreate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70059E27-8FBA-4B74-9411-BB078DC4F76E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF0F291-5FA2-45E6-8136-34AC7F069A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
   <si>
     <t>header1</t>
   </si>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>coursecreate1.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>準備中です。更新をお待ちください。</t>
     <rPh sb="0" eb="2">
       <t>ジュンビ</t>
@@ -111,10 +107,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【準備中】不要なコースを削除したい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>【準備中】授業にリンクしないコースを作りたい</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -144,6 +136,96 @@
   </si>
   <si>
     <t>【準備中】複数名で担当するため、一つの授業科目を複数のコースに分割したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のURLをクリックします
+■[ プレファレンス - コースの管理 ] 
+https://support.vle.hiroshima-u.ac.jp/man/guide41_coursecreate/index.html</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースの削除は「主担当教員」のみが可能です。予めご注意ください。</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シュタントウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アラカジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>coursedelete1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[コースの管理]画面で削除したいコースを探し、[削除]をクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[このコースを削除しますか？]と聞かれたら、[OK]をクリックします</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>coursedelete2.png</t>
+  </si>
+  <si>
+    <t>coursedelete3.png</t>
+  </si>
+  <si>
+    <t>コースの削除が完了すると、右図のようにメッセージが表示されます</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギズ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不要なコースを削除したい</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -672,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -701,7 +783,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -763,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AAC137-94F7-4C20-9279-DE89D329BEF5}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -779,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -800,42 +882,58 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="40.5">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G9" s="6"/>
     </row>
   </sheetData>
@@ -865,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -890,7 +988,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -950,7 +1048,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -992,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1022,7 +1120,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1060,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1085,7 +1183,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1144,7 +1242,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1191,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1220,7 +1318,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1277,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1306,7 +1404,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>

--- a/guide41_coursecreate.xlsx
+++ b/guide41_coursecreate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF0F291-5FA2-45E6-8136-34AC7F069A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DC6390-EBFD-4BDD-9D37-DF99E4F78EFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -139,37 +139,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以下のURLをクリックします
-■[ プレファレンス - コースの管理 ] 
-https://support.vle.hiroshima-u.ac.jp/man/guide41_coursecreate/index.html</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コースの削除は「主担当教員」のみが可能です。予めご注意ください。</t>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>シュタントウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アラカジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>coursedelete1.png</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -226,6 +195,46 @@
   </si>
   <si>
     <t>不要なコースを削除したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースの削除は「主担当教員」の方のみが可能です。予めご注意ください。</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シュタントウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アラカジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のURLから[コースの管理]画面へアクセスします
+　■[ プレファレンス - コースの管理 ] 
+　https://support.vle.hiroshima-u.ac.jp/man/guide41_coursecreate/index.html</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -846,7 +855,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -861,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -882,18 +891,18 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="40.5">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -901,38 +910,38 @@
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="6"/>
     </row>

--- a/guide41_coursecreate.xlsx
+++ b/guide41_coursecreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DC6390-EBFD-4BDD-9D37-DF99E4F78EFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB56823B-01CB-4EB5-84BD-CAE38884F46E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="7" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
   <si>
     <t>header1</t>
   </si>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>【準備中】複数の授業科目の履修生を一つのコースに登録したい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>【準備中】一つのコースを複数名の教員で担当したい</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -223,17 +219,78 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以下のURLから[コースの管理]画面へアクセスします
-　■[ プレファレンス - コースの管理 ] 
-　https://support.vle.hiroshima-u.ac.jp/man/guide41_coursecreate/index.html</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
+    <t>&lt;h3&gt;授業に利用するコースの名称を変更&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「作成したか登録されているコースの一覧」から、既に作成されている2つのコース (Advanced Biofuel Engineering) のうち、授業に利用するコースを選び、一番右の列にある[ 編集 ] をクリックします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、[ プリファレンス - 【その他】コースの管理 ]と進みます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「長いコース名」を変更します。（講義コードの違い等による学生の混乱を防ぐため、わかりやすい名前にします）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;不要なコースの不可視化&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;講義の関連付け&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>授業に利用するコースを探し、 一番右の列にある[ もみじリンク ] をクリックします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数の授業科目の履修生を一つのコースに登録したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moodle上で1つのmoodleコースと複数の講義との関連付けを行い、「もみじ」のそれぞれの講義情報ページから同じ一つのmoodleコースへ履修生を登録させることが可能です。</t>
+    <rPh sb="21" eb="23">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>リシュウセイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mergecourse1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mergecourse2.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mergecourse3.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mergecourse4.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mergecourse5.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>授業に利用しないコースを探し、 [可視性] の目のマークをクリックし、非表示にします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今年度担当している講義の一覧が表示されます。関連付けたい講義全てにチェックを入れ、「更新する」をクリックします。</t>
+    <rPh sb="30" eb="31">
+      <t>スベ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -329,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +423,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -854,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AAC137-94F7-4C20-9279-DE89D329BEF5}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -870,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -896,52 +956,56 @@
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="6"/>
     </row>
@@ -1280,16 +1344,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="76.25" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1298,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1321,29 +1385,45 @@
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="27">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27">
       <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="8"/>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="8"/>
+    <row r="8" spans="1:4" ht="40.5">
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27">
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
@@ -1353,9 +1433,52 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="8"/>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1384,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7">

--- a/guide41_coursecreate.xlsx
+++ b/guide41_coursecreate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB56823B-01CB-4EB5-84BD-CAE38884F46E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09FBCA2-66F0-4135-B8BA-3AF1DF3D5EFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="7" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t>header1</t>
   </si>
@@ -219,27 +219,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;授業に利用するコースの名称を変更&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「作成したか登録されているコースの一覧」から、既に作成されている2つのコース (Advanced Biofuel Engineering) のうち、授業に利用するコースを選び、一番右の列にある[ 編集 ] をクリックします。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、[ プリファレンス - 【その他】コースの管理 ]と進みます。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「長いコース名」を変更します。（講義コードの違い等による学生の混乱を防ぐため、わかりやすい名前にします）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;不要なコースの不可視化&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;講義の関連付け&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -291,6 +275,29 @@
     <t>今年度担当している講義の一覧が表示されます。関連付けたい講義全てにチェックを入れ、「更新する」をクリックします。</t>
     <rPh sb="30" eb="31">
       <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、[ プリファレンス - 【その他】コースの管理 ]と進みます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「作成したか登録されているコースの一覧」から、授業に利用するコースを選び、一番右の列にある[ 編集 ] をクリックします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;授業に利用するコースの名称を変更する&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;不要なコースを不可視化する&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースと講義の関連付けを行う&lt;/h3&gt;</t>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -962,13 +969,13 @@
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1347,7 +1354,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1362,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1388,41 +1395,41 @@
     <row r="5" spans="1:4" ht="27">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27">
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="40.5">
+    <row r="8" spans="1:4" ht="27">
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27">
       <c r="B9" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1434,47 +1441,47 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:2">

--- a/guide41_coursecreate.xlsx
+++ b/guide41_coursecreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09FBCA2-66F0-4135-B8BA-3AF1DF3D5EFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7654F45A-BF0F-4CE4-ACC6-8042914C1578}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="7" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1" xr2:uid="{1A1DF625-1A83-4DB9-B752-A7D735C1A28A}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
   <si>
     <t>header1</t>
   </si>
@@ -216,10 +216,6 @@
     <rPh sb="27" eb="29">
       <t>チュウイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面右上ユーザーアイコン横の∨（ユーザーメニュー）をクリックし、[ プリファレンス - 【その他】コースの管理 ]と進みます。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -921,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AAC137-94F7-4C20-9279-DE89D329BEF5}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -969,13 +965,13 @@
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1353,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BC7DB3-362D-4077-932E-AAF085409BB7}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1369,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1395,41 +1391,41 @@
     <row r="5" spans="1:4" ht="27">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27">
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="B8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27">
       <c r="B9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1441,47 +1437,47 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:2">
